--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,84 +40,93 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>arrested</t>
+    <t>fucking</t>
   </si>
   <si>
     <t>kill</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
     <t>ridiculous</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>stress</t>
+    <t>fake</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
     <t>selfish</t>
   </si>
   <si>
+    <t>infected</t>
+  </si>
+  <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
+    <t>problem</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>recession</t>
   </si>
   <si>
@@ -127,163 +136,178 @@
     <t>emergency</t>
   </si>
   <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>contest</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>give</t>
   </si>
   <si>
     <t>save</t>
@@ -292,31 +316,43 @@
     <t>sure</t>
   </si>
   <si>
-    <t>give</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>available</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>essential</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
+    <t>health</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>19</t>
@@ -680,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,10 +724,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -752,10 +788,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -770,16 +806,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -799,38 +835,38 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9705882352941176</v>
+        <v>1</v>
       </c>
       <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>33</v>
       </c>
-      <c r="D4">
+      <c r="M4">
         <v>33</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4">
-        <v>0.9787234042553191</v>
-      </c>
-      <c r="L4">
-        <v>46</v>
-      </c>
-      <c r="M4">
-        <v>46</v>
-      </c>
       <c r="N4">
         <v>1</v>
       </c>
@@ -841,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -849,13 +885,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -870,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -891,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -920,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K6">
         <v>0.9661016949152542</v>
@@ -949,13 +985,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8695652173913043</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -967,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -999,13 +1035,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8648648648648649</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1020,16 +1056,16 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>0.9017857142857143</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L8">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1041,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1049,13 +1085,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8636363636363636</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1070,16 +1106,16 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>0.9</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="L9">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="M9">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1091,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1099,13 +1135,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8620689655172413</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1117,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>0.8943661971830986</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="L10">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1141,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1170,16 +1206,16 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.8823529411764706</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1191,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1220,16 +1256,16 @@
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>0.8780487804878049</v>
+        <v>0.8828125</v>
       </c>
       <c r="L12">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1241,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1249,13 +1285,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8458904109589042</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C13">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1267,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>0.875</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="L13">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="M13">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1291,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1299,13 +1335,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8421052631578947</v>
+        <v>0.8424657534246576</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>246</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>246</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1317,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K14">
-        <v>0.8461538461538461</v>
+        <v>0.875</v>
       </c>
       <c r="L14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1341,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1349,13 +1385,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1370,16 +1406,16 @@
         <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K15">
-        <v>0.8448275862068966</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1391,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1399,13 +1435,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7948717948717948</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1417,19 +1453,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>0.839622641509434</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L16">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1441,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1449,13 +1485,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7894736842105263</v>
+        <v>0.8</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1467,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K17">
-        <v>0.82</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1491,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1499,13 +1535,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7837837837837838</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1517,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>0.8125</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L18">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1541,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1549,13 +1585,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1570,16 +1606,16 @@
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K19">
-        <v>0.8095238095238095</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L19">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M19">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1591,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1599,13 +1635,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7435897435897436</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1617,19 +1653,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K20">
-        <v>0.8067885117493473</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L20">
-        <v>309</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>309</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1641,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1649,13 +1685,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7368421052631579</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1667,19 +1703,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K21">
-        <v>0.7941176470588235</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1691,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1699,13 +1735,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7037037037037037</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1717,19 +1753,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K22">
-        <v>0.776595744680851</v>
+        <v>0.8</v>
       </c>
       <c r="L22">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="M22">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1741,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1749,13 +1785,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6944444444444444</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1767,19 +1803,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K23">
-        <v>0.7384615384615385</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L23">
-        <v>48</v>
+        <v>306</v>
       </c>
       <c r="M23">
-        <v>48</v>
+        <v>306</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1791,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1799,13 +1835,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6774193548387096</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1817,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K24">
-        <v>0.7152542372881356</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L24">
-        <v>211</v>
+        <v>50</v>
       </c>
       <c r="M24">
-        <v>211</v>
+        <v>50</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1841,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1849,13 +1885,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6538461538461539</v>
+        <v>0.7</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1867,19 +1903,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K25">
-        <v>0.7083333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1891,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1899,13 +1935,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6363636363636364</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1917,19 +1953,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K26">
-        <v>0.7083333333333334</v>
+        <v>0.776595744680851</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1941,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1949,13 +1985,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6086956521739131</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1967,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K27">
-        <v>0.7037037037037037</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1991,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1999,13 +2035,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5833333333333334</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C28">
-        <v>301</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>301</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2017,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K28">
-        <v>0.6944444444444444</v>
+        <v>0.76</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2041,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2049,7 +2085,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5806451612903226</v>
+        <v>0.6</v>
       </c>
       <c r="C29">
         <v>18</v>
@@ -2067,19 +2103,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K29">
-        <v>0.6823529411764706</v>
+        <v>0.75</v>
       </c>
       <c r="L29">
-        <v>232</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>232</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2091,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2099,13 +2135,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5570469798657718</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C30">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="D30">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2117,19 +2153,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K30">
-        <v>0.6736401673640168</v>
+        <v>0.735593220338983</v>
       </c>
       <c r="L30">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="M30">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2149,13 +2185,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5466666666666666</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C31">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2167,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K31">
-        <v>0.6511627906976745</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2191,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2199,13 +2235,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5357142857142857</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2217,31 +2253,31 @@
         <v>0</v>
       </c>
       <c r="H32">
+        <v>14</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K32">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="L32">
+        <v>35</v>
+      </c>
+      <c r="M32">
+        <v>35</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>13</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K32">
-        <v>0.6444444444444445</v>
-      </c>
-      <c r="L32">
-        <v>29</v>
-      </c>
-      <c r="M32">
-        <v>29</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2249,13 +2285,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5098039215686274</v>
+        <v>0.5436241610738255</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="D33">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2267,19 +2303,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K33">
-        <v>0.6363636363636364</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2291,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2299,13 +2335,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4111111111111111</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C34">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D34">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2317,19 +2353,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K34">
-        <v>0.6363636363636364</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2349,13 +2385,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4021164021164021</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C35">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2367,19 +2403,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K35">
-        <v>0.6296296296296297</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2391,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2399,13 +2435,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3766233766233766</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D36">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2417,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K36">
-        <v>0.6285714285714286</v>
+        <v>0.6794117647058824</v>
       </c>
       <c r="L36">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="M36">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2441,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2449,38 +2485,38 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3559322033898305</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>24</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>35</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K37">
+        <v>0.6774193548387096</v>
+      </c>
+      <c r="L37">
         <v>21</v>
       </c>
-      <c r="D37">
+      <c r="M37">
         <v>21</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>38</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K37">
-        <v>0.6179775280898876</v>
-      </c>
-      <c r="L37">
-        <v>55</v>
-      </c>
-      <c r="M37">
-        <v>55</v>
-      </c>
       <c r="N37">
         <v>1</v>
       </c>
@@ -2491,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2499,13 +2535,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3050847457627119</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2517,19 +2553,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K38">
-        <v>0.6</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2541,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2549,13 +2585,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2857142857142857</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2567,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K39">
-        <v>0.5957446808510638</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L39">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2591,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2599,13 +2635,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2380952380952381</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C40">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D40">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2617,19 +2653,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K40">
-        <v>0.5806451612903226</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2641,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2649,13 +2685,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2375</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2667,65 +2703,113 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41">
+        <v>0.65</v>
+      </c>
+      <c r="L41">
+        <v>26</v>
+      </c>
+      <c r="M41">
+        <v>26</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.3</v>
+      </c>
+      <c r="C42">
+        <v>27</v>
+      </c>
+      <c r="D42">
+        <v>27</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>63</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K42">
+        <v>0.6401673640167364</v>
+      </c>
+      <c r="L42">
+        <v>153</v>
+      </c>
+      <c r="M42">
+        <v>153</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>86</v>
       </c>
-      <c r="K41">
-        <v>0.5616438356164384</v>
-      </c>
-      <c r="L41">
-        <v>41</v>
-      </c>
-      <c r="M41">
-        <v>41</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K42">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="L42">
-        <v>42</v>
-      </c>
-      <c r="M42">
-        <v>42</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>36</v>
-      </c>
     </row>
     <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.2711864406779661</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>16</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>43</v>
+      </c>
       <c r="J43" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K43">
-        <v>0.5151515151515151</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L43">
         <v>17</v>
@@ -2743,21 +2827,45 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.2658730158730159</v>
+      </c>
+      <c r="C44">
+        <v>67</v>
+      </c>
+      <c r="D44">
+        <v>67</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>185</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2769,21 +2877,45 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.2375</v>
+      </c>
+      <c r="C45">
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <v>19</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>61</v>
+      </c>
       <c r="J45" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K45">
-        <v>0.4857142857142857</v>
+        <v>0.6</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M45">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2795,21 +2927,45 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.1260053619302949</v>
+      </c>
+      <c r="C46">
+        <v>47</v>
+      </c>
+      <c r="D46">
+        <v>47</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>326</v>
+      </c>
       <c r="J46" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K46">
-        <v>0.46875</v>
+        <v>0.5753424657534246</v>
       </c>
       <c r="L46">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M46">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2821,21 +2977,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K47">
-        <v>0.459016393442623</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2847,21 +3003,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K48">
-        <v>0.45</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L48">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2873,21 +3029,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K49">
-        <v>0.4285714285714285</v>
+        <v>0.515625</v>
       </c>
       <c r="L49">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M49">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2899,21 +3055,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K50">
-        <v>0.423728813559322</v>
+        <v>0.5</v>
       </c>
       <c r="L50">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2925,21 +3081,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K51">
-        <v>0.1805555555555556</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2951,21 +3107,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K52">
-        <v>0.1259842519685039</v>
+        <v>0.475</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2977,21 +3133,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>111</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K53">
-        <v>0.09569377990430622</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="L53">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M53">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3003,21 +3159,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>378</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K54">
-        <v>0.0576923076923077</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="L54">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M54">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3029,21 +3185,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>392</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K55">
-        <v>0.01901565995525727</v>
+        <v>0.1626794258373206</v>
       </c>
       <c r="L55">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="M55">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3055,59 +3211,241 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>877</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K56">
-        <v>0.006071929005137786</v>
+        <v>0.1297709923664122</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N56">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>2128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K57">
-        <v>0.004507405022537025</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="M57">
+        <v>50</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K58">
+        <v>0.07878787878787878</v>
+      </c>
+      <c r="L58">
+        <v>13</v>
+      </c>
+      <c r="M58">
+        <v>13</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K59">
+        <v>0.07009345794392523</v>
+      </c>
+      <c r="L59">
         <v>15</v>
       </c>
-      <c r="N57">
-        <v>0.93</v>
-      </c>
-      <c r="O57">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>3092</v>
+      <c r="M59">
+        <v>16</v>
+      </c>
+      <c r="N59">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O59">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K60">
+        <v>0.06976744186046512</v>
+      </c>
+      <c r="L60">
+        <v>15</v>
+      </c>
+      <c r="M60">
+        <v>15</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K61">
+        <v>0.03803131991051454</v>
+      </c>
+      <c r="L61">
+        <v>34</v>
+      </c>
+      <c r="M61">
+        <v>34</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K62">
+        <v>0.02663706992230854</v>
+      </c>
+      <c r="L62">
+        <v>24</v>
+      </c>
+      <c r="M62">
+        <v>24</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K63">
+        <v>0.009813084112149532</v>
+      </c>
+      <c r="L63">
+        <v>21</v>
+      </c>
+      <c r="M63">
+        <v>24</v>
+      </c>
+      <c r="N63">
+        <v>0.88</v>
+      </c>
+      <c r="O63">
+        <v>0.12</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K64">
+        <v>0.007407407407407408</v>
+      </c>
+      <c r="L64">
+        <v>23</v>
+      </c>
+      <c r="M64">
+        <v>25</v>
+      </c>
+      <c r="N64">
+        <v>0.92</v>
+      </c>
+      <c r="O64">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>3082</v>
       </c>
     </row>
   </sheetData>
